--- a/APP_KHAI_BAO_LUU_TRU_2/_internal/DS_Cong_Dan.xlsx
+++ b/APP_KHAI_BAO_LUU_TRU_2/_internal/DS_Cong_Dan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QUAN LY NHA NGHI\APP_KHAI_BAO_LUU_TRU_2\dist\APP_KHAI_BAO_LUU_TRU_2\_internal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QUAN LY NHA NGHI\APP_KHAI_BAO_LUU_TRU_2\_internal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D70B760-A7BD-4247-B95A-513CED90D493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8380AFF4-4238-4A92-A3CB-F0EFDB9919BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3CBB160B-3498-4CC6-843E-8E9B45C98AD4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="111">
   <si>
     <t>Số giấy tờ</t>
   </si>
@@ -74,29 +74,308 @@
     <t>Ảnh mặt sau</t>
   </si>
   <si>
-    <t>Hồng Văn Thu</t>
-  </si>
-  <si>
     <t>Nam</t>
   </si>
   <si>
     <t>Ấp Phụng Thạnh, Thạnh Tiến, Vĩnh Thạnh, Cần Thơ</t>
   </si>
   <si>
-    <t>22/11/2021</t>
-  </si>
-  <si>
     <t>CCCD</t>
   </si>
   <si>
     <t>Phòng 3 nhà cũ</t>
+  </si>
+  <si>
+    <t>Lê Quốc Hiệp</t>
+  </si>
+  <si>
+    <t>12, An Dương Vương, Tổ 2, Khu Phố Đông Bình, TT. Tân Hiệp, Tân Hiệp, Kiên Giang</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ BÍCH VÂN</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>Khóm 5, Thị trấn Cái Đôi Vàm, Phú Tân, Cà Mau</t>
+  </si>
+  <si>
+    <t>Phòng 7 nhà cũ</t>
+  </si>
+  <si>
+    <t>TRẦN TIN</t>
+  </si>
+  <si>
+    <t>28, Phan Văn Vũ, Vĩnh Phước, Nha Trang, Khánh Hòa</t>
+  </si>
+  <si>
+    <t>Phòng 4 nhà mới</t>
+  </si>
+  <si>
+    <t>Nguyễn Huy Bình</t>
+  </si>
+  <si>
+    <t>1917/50A Phạm Thế Hiển, Phường 6, Quận 8, TP.Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>PHAN HOÀNG HIỄU</t>
+  </si>
+  <si>
+    <t>548A/2, KP8A, Tân Biên, Thành phố Biên Hòa, Đồng Nai</t>
+  </si>
+  <si>
+    <t>Phòng 8 nhà cũ</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Danh</t>
+  </si>
+  <si>
+    <t>Thôn Hòa Thọ, Hành Phước, Nghĩa Hành, Quảng Ngãi</t>
+  </si>
+  <si>
+    <t>Nguyễn Phương Thanh</t>
+  </si>
+  <si>
+    <t>Ấp Thạnh Đông, Thạnh Đông B, Tân Hiệp, Kiên Giang</t>
+  </si>
+  <si>
+    <t>Phòng 2 nhà mới</t>
+  </si>
+  <si>
+    <t>PHẠM THÀNH ĐÔNG</t>
+  </si>
+  <si>
+    <t>Ấp Tân Lợi, Tân Phú, Châu Thành, An Giang</t>
+  </si>
+  <si>
+    <t>Trần Phúc Hậu</t>
+  </si>
+  <si>
+    <t>25/32 Đường Hồ Văn Long, Tân Tạo, Bình Tân, TP. Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Hồng</t>
+  </si>
+  <si>
+    <t>Số Nhà 297, Tổ 13, Ấp Kinh 2B, Tân An, Tân Hiệp, Kiên Giang</t>
+  </si>
+  <si>
+    <t>Phòng 1 nhà mới</t>
+  </si>
+  <si>
+    <t>Nguyễn Thế Hải</t>
+  </si>
+  <si>
+    <t>Số Nhà 306, Tổ 10, Ấp Kinh 8A, Thạnh Đông A, Tân Hiệp, Kiên Giang</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Tuấn</t>
+  </si>
+  <si>
+    <t>Tổ 1, Khu Phố 7, An Thới, TP.Phú Quốc, Kiên Giang</t>
+  </si>
+  <si>
+    <t>Phòng 9 nhà cũ</t>
+  </si>
+  <si>
+    <t>NGUYỄN MINH TIẾN</t>
+  </si>
+  <si>
+    <t>Ấp Phú Thuận B, Phú Lâm, Phú Tân, An Giang</t>
+  </si>
+  <si>
+    <t>Lê Hồng Phong</t>
+  </si>
+  <si>
+    <t>Tổ 4, Ấp Tân An, Tân Hiệp B, Tân Hiệp, Kiên Giang</t>
+  </si>
+  <si>
+    <t>Phòng 5 nhà mới</t>
+  </si>
+  <si>
+    <t>Lê Thanh Việt</t>
+  </si>
+  <si>
+    <t>Số Nhà 81/4, Tổ 3, Ấp Đông Phước, Thạnh Đông A, Tân Hiệp, Kiên Giang</t>
+  </si>
+  <si>
+    <t>Bùi Xuân Khang</t>
+  </si>
+  <si>
+    <t>P308 K2 T/T Thành Công, Thành Công, Ba Đình, Hà Nội</t>
+  </si>
+  <si>
+    <t>Ngô Hoàng Út</t>
+  </si>
+  <si>
+    <t>Khu Vực 5, Phường V, Vị Thanh, Hậu Giang</t>
+  </si>
+  <si>
+    <t>Hoàng Thiên Triều</t>
+  </si>
+  <si>
+    <t>Ấp B1, Thạnh Thắng, Vĩnh Thạnh, Cần Thơ</t>
+  </si>
+  <si>
+    <t>Phan Ngọc Đăng</t>
+  </si>
+  <si>
+    <t>Số Nhà 531, Tổ 6, Ấp Thạnh Lợi, Thạnh Đông A, Tân Hiệp, Kiên Giang</t>
+  </si>
+  <si>
+    <t>Nguyễn Mai Hà</t>
+  </si>
+  <si>
+    <t>230/47 Đường Thống Nhất, Tổ 118, Phường 10, Gò Vấp, TP. Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Huỳnh Thị Thủy</t>
+  </si>
+  <si>
+    <t>Ấp Long Thiện, Ô Long Vỹ, Châu Phú, An Giang</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Mén</t>
+  </si>
+  <si>
+    <t>Ấp Mỹ Bình, Thạnh Mỹ Tây, Châu Phú, An Giang</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Mộng Kha</t>
+  </si>
+  <si>
+    <t>Tổ 15, Ấp Kinh 7 A, Thạnh Đông A, Tân Hiệp, Kiên Giang</t>
+  </si>
+  <si>
+    <t>Nguyễn An Khang</t>
+  </si>
+  <si>
+    <t>Ấp Kinh 10B, Thị Trấn Tân Hiệp, Kiên Giang</t>
+  </si>
+  <si>
+    <t>Phòng 3 nhà mới</t>
+  </si>
+  <si>
+    <t>Bùi Trung Kiên</t>
+  </si>
+  <si>
+    <t>Tổ 3, Ấp Tràm Trổi, Vĩnh Điều, Giang Thành, Kiên Giang</t>
+  </si>
+  <si>
+    <t>Trương Hoàng An</t>
+  </si>
+  <si>
+    <t>Ấp Hưng Thuận, Tân Hưng, Bình Tân, Vĩnh Long</t>
+  </si>
+  <si>
+    <t>Phòng 5 nhà cũ</t>
+  </si>
+  <si>
+    <t>Lê Bảo Thọ</t>
+  </si>
+  <si>
+    <t>Ấp Tân Hà B, Tân Hòa, Tân Hiệp, Kiên Giang</t>
+  </si>
+  <si>
+    <t>Lê Đức Anh Dũng</t>
+  </si>
+  <si>
+    <t>TK Tập Cát 2, Thị trấn Nông Cống, Nông Cống, Thanh Hóa</t>
+  </si>
+  <si>
+    <t>Nguyễn Nam Anh</t>
+  </si>
+  <si>
+    <t>34 Đường Dương Tự Quán Tổ Dân Phố 56 Khu Phố 4, P.An Lạc A, Bình Tân, TP.Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Định</t>
+  </si>
+  <si>
+    <t>Thôn Đông Bình, Nhơn Thọ, Thị xã An Nhơn, Bình Định</t>
+  </si>
+  <si>
+    <t>Nguyễn Lâm Mỹ Phượng</t>
+  </si>
+  <si>
+    <t>Khu Vực 2, Trà Lồng, TX. Long Mỹ, Hậu Giang</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuấn Hải</t>
+  </si>
+  <si>
+    <t>Khóm Trung 3, Thị trấn Phú Mỹ, Phú Tân, An Giang</t>
+  </si>
+  <si>
+    <t>Trần Nhựt Bổn</t>
+  </si>
+  <si>
+    <t>Tổ 6, Ấp Hậu Giang 2, Tân Hòa, Phú Tân, An Giang</t>
+  </si>
+  <si>
+    <t>Ngô Xuân Trọng</t>
+  </si>
+  <si>
+    <t>Trần Thị Linh</t>
+  </si>
+  <si>
+    <t>Ấp 3, Phước Tuy, Cần Đước, Long An</t>
+  </si>
+  <si>
+    <t>Trịnh Mỹ Linh</t>
+  </si>
+  <si>
+    <t>Số Nhà 208/26/4/3 Đường Số 5, P.Bình Hưng Hòa, Bình Tân, TP.Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>M145J8259</t>
+  </si>
+  <si>
+    <t>NA HANSUNG</t>
+  </si>
+  <si>
+    <t>Hộ chiếu (passport)</t>
+  </si>
+  <si>
+    <t>M214P6196</t>
+  </si>
+  <si>
+    <t>DA SEONMI</t>
+  </si>
+  <si>
+    <t>M638G2538</t>
+  </si>
+  <si>
+    <t>BYUN YOUNGSOON</t>
+  </si>
+  <si>
+    <t>M895N2213</t>
+  </si>
+  <si>
+    <t>RA CHUNHO</t>
+  </si>
+  <si>
+    <t>Bành Văn Thuận</t>
+  </si>
+  <si>
+    <t>Ấp 6, Xà Phiên, Long Mỹ, Hậu Giang</t>
+  </si>
+  <si>
+    <t>Phòng 4 nhà cũ</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hoài</t>
+  </si>
+  <si>
+    <t>Khu Phố 4, An Thới, TP. Phú Quốc, Kiên Giang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,21 +396,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -147,7 +411,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -170,46 +434,29 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -542,29 +789,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BEBF54-E735-44CC-8BE2-BE2A7F4A94A9}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="84.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,46 +851,1708 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>92083013522</v>
-      </c>
-      <c r="B2" s="2">
-        <v>362030926</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="3">
+        <v>91095006338</v>
+      </c>
+      <c r="B2" s="3">
+        <v>371727089</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4">
+        <v>34725</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4">
+        <v>45253</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="5">
+        <v>45796.690335648149</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>96193007157</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4">
+        <v>33970</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4">
+        <v>44422</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="5">
+        <v>45796.912962962961</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>56194006799</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4">
+        <v>34476</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="5">
+        <v>45796.93509259259</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>82079009889</v>
+      </c>
+      <c r="B5" s="3">
+        <v>25726188</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4">
+        <v>28988</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="4">
+        <v>44556</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="5">
+        <v>45797.726527777777</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>75202005210</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4">
+        <v>37464</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="5">
+        <v>45798.730092592596</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>51084019055</v>
+      </c>
+      <c r="B7" s="3">
+        <v>212772204</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4">
+        <v>30682</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="4">
+        <v>44645</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="5">
+        <v>45798.791261574072</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>91301013069</v>
+      </c>
+      <c r="B8" s="3">
+        <v>372037622</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4">
+        <v>37186</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="4">
+        <v>45120</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="5">
+        <v>45798.910104166665</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>89206019981</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4">
+        <v>38751</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="5">
+        <v>45798.98096064815</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>79095002950</v>
+      </c>
+      <c r="B10" s="3">
+        <v>25463058</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4">
+        <v>34773</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="4">
+        <v>45378</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="5">
+        <v>45799.863692129627</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>91078008986</v>
+      </c>
+      <c r="B11" s="3">
+        <v>352465981</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4">
+        <v>28852</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="4">
+        <v>44917</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="5">
+        <v>45799.908113425925</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>91097015554</v>
+      </c>
+      <c r="B12" s="3">
+        <v>371901334</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4">
+        <v>35709</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="4">
+        <v>44455</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="5">
+        <v>45799.928402777776</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>91071015623</v>
+      </c>
+      <c r="B13" s="3">
+        <v>371307162</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4">
+        <v>25991</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="4">
+        <v>44617</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="5">
+        <v>45800.502986111111</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>87096015542</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4">
+        <v>35394</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="4">
+        <v>45094</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="5">
+        <v>45801.470138888886</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>91081017072</v>
+      </c>
+      <c r="B15" s="3">
+        <v>370841245</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4">
+        <v>29587</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="4">
+        <v>44883</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="5">
+        <v>45801.705254629633</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>91084012750</v>
+      </c>
+      <c r="B16" s="3">
+        <v>370990818</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="4">
+        <v>30750</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="4">
+        <v>45278</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="5">
+        <v>45801.853634259256</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>1080001692</v>
+      </c>
+      <c r="B17" s="3">
+        <v>11897042</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4">
+        <v>29513</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="4">
+        <v>45111</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="5">
+        <v>45802.622291666667</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>93089002224</v>
+      </c>
+      <c r="B18" s="3">
+        <v>363625191</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="4">
+        <v>32612</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="4">
+        <v>44941</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="5">
+        <v>45802.859768518516</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>92202000529</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4">
+        <v>37349</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="4">
+        <v>44412</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="5">
+        <v>45803.536620370367</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>91086020674</v>
+      </c>
+      <c r="B20" s="3">
+        <v>371101463</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="4">
+        <v>31417</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="4">
+        <v>44923</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="5">
+        <v>45803.785219907404</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>1073013937</v>
+      </c>
+      <c r="B21" s="3">
+        <v>23081798</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="4">
+        <v>26995</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="4">
+        <v>44820</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="5">
+        <v>45803.849756944444</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>89191014033</v>
+      </c>
+      <c r="B22" s="3">
+        <v>352357017</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="4">
+        <v>33284</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="4">
+        <v>44711</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="5">
+        <v>45803.864155092589</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>89195008544</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="4">
+        <v>34971</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="4">
+        <v>45064</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" s="5">
+        <v>45803.909861111111</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>91308000131</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="4">
+        <v>39781</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="4">
+        <v>44983</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="5">
+        <v>45804.67087962963</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>91090022191</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="4">
+        <v>33098</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="4">
+        <v>44522</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" s="5">
+        <v>45804.975069444445</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>87205017175</v>
+      </c>
+      <c r="B26" s="3">
+        <v>372056275</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="4">
+        <v>38373</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="4">
+        <v>45452</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="5">
+        <v>45804.977835648147</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>86093011875</v>
+      </c>
+      <c r="B27" s="3">
+        <v>331682224</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="4">
+        <v>34201</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="4">
+        <v>44477</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" s="5">
+        <v>45804.979166666664</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>91301013069</v>
+      </c>
+      <c r="B28" s="3">
+        <v>372037622</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="4">
+        <v>37186</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="4">
+        <v>45120</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="5">
+        <v>45805.881180555552</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>91086004502</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="4">
+        <v>31503</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="4">
+        <v>45055</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J29" s="5">
+        <v>45806.428726851853</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>38203017024</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="4">
+        <v>37755</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="4">
+        <v>44311</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" s="5">
+        <v>45806.429745370369</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>79089035969</v>
+      </c>
+      <c r="B31" s="3">
+        <v>24228060</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="4">
+        <v>32645</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="4">
+        <v>44397</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="5">
+        <v>45806.816388888888</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>38203017024</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="4">
+        <v>37755</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="4">
+        <v>44311</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" s="5">
+        <v>45806.816620370373</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>91086020674</v>
+      </c>
+      <c r="B33" s="3">
+        <v>371101463</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="4">
+        <v>31417</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="4">
+        <v>44923</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="5">
+        <v>45806.937106481484</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>93089002224</v>
+      </c>
+      <c r="B34" s="3">
+        <v>363625191</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="4">
+        <v>32612</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="4">
+        <v>44941</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J34" s="5">
+        <v>45806.939699074072</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>52095016049</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="4">
+        <v>34792</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="4">
+        <v>44946</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="5">
+        <v>45807.865532407406</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>93300005349</v>
+      </c>
+      <c r="B36" s="3">
+        <v>364095686</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="4">
+        <v>36526</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="4">
+        <v>45642</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J36" s="5">
+        <v>45808.878229166665</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>89099008678</v>
+      </c>
+      <c r="B37" s="3">
+        <v>352503509</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="4">
+        <v>36219</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" s="4">
+        <v>44747</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J37" s="5">
+        <v>45808.879988425928</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>89088019851</v>
+      </c>
+      <c r="B38" s="3">
+        <v>351891756</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="4">
+        <v>32158</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G38" s="4">
+        <v>45091</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="5">
+        <v>45808.901550925926</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>91081017072</v>
+      </c>
+      <c r="B39" s="3">
+        <v>370841245</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="4">
+        <v>29587</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" s="4">
+        <v>44883</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J39" s="5">
+        <v>45808.912962962961</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>92205005260</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="4">
+        <v>38592</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3">
-        <v>30317</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="G40" s="4">
+        <v>44329</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="5">
+        <v>45808.913217592592</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>84191010177</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="4">
+        <v>33409</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="4">
-        <v>45694.555717592593</v>
-      </c>
-      <c r="K2" s="5" t="str">
-        <f>HYPERLINK("D:\QUAN LY NHA NGHI\APP_KHAI_BAO_LUU_TRU_2\dist\APP_KHAI_BAO_LUU_TRU_2\_internal\DS_Anh_Cong_Dan_da_khai_bao\z6662117387822_ac068f34ed7f74078d1cee20f0067a0d.jpg", "Ảnh mặt trước")</f>
-        <v>Ảnh mặt trước</v>
-      </c>
-      <c r="L2" s="5" t="str">
-        <f>HYPERLINK("D:\QUAN LY NHA NGHI\APP_KHAI_BAO_LUU_TRU_2\dist\APP_KHAI_BAO_LUU_TRU_2\_internal\DS_Anh_Cong_Dan_da_khai_bao\z6662117384686_d1874dccf59f26d378f7d01082fe4c07.jpg", "Ảnh mặt sau")</f>
-        <v>Ảnh mặt sau</v>
+      <c r="J41" s="5">
+        <v>45808.978414351855</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>91181000392</v>
+      </c>
+      <c r="B42" s="3">
+        <v>370847325</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="4">
+        <v>29765</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G42" s="4">
+        <v>44896</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J42" s="5">
+        <v>45663.501388888886</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="4">
+        <v>31784</v>
+      </c>
+      <c r="G43" s="4">
+        <v>45730</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J43" s="5">
+        <v>45663.752083333333</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="4">
+        <v>29429</v>
+      </c>
+      <c r="G44" s="4">
+        <v>45743</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J44" s="5">
+        <v>45663.754861111112</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="4">
+        <v>35037</v>
+      </c>
+      <c r="G45" s="4">
+        <v>45744</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J45" s="5">
+        <v>45663.755555555559</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="4">
+        <v>19596</v>
+      </c>
+      <c r="G46" s="4">
+        <v>45749</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J46" s="5">
+        <v>45663.756944444445</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>95078003474</v>
+      </c>
+      <c r="B47" s="3">
+        <v>363946051</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="4">
+        <v>28491</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G47" s="4">
+        <v>44687</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J47" s="5">
+        <v>45663.893750000003</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>91086020674</v>
+      </c>
+      <c r="B48" s="3">
+        <v>371101463</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="4">
+        <v>31417</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G48" s="4">
+        <v>44923</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" s="5">
+        <v>45663.95208333333</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>91203001544</v>
+      </c>
+      <c r="B49" s="3">
+        <v>371987447</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="4">
+        <v>37675</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G49" s="4">
+        <v>44381</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" s="5">
+        <v>45663.958333333336</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>